--- a/LearningAutomation/test data/Login-Data.xlsx
+++ b/LearningAutomation/test data/Login-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karthick.r\git\PipelineProject\LearningAutomation\test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97406353-7237-49A6-A13F-D5131C4BE1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEBE61C-0F73-4149-BEA9-BA95E4C137D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Pas23434</t>
+  </si>
+  <si>
+    <t>Passwed</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,6 +422,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1234567</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{57E3D13E-FDBD-414C-9720-DBB7DD3F80ED}"/>

--- a/LearningAutomation/test data/Login-Data.xlsx
+++ b/LearningAutomation/test data/Login-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karthick.r\git\PipelineProject\LearningAutomation\test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEBE61C-0F73-4149-BEA9-BA95E4C137D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C400ADAE-DEF8-41C0-ACA7-2FDD757DE9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -33,16 +33,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>karthick.r@nihilent.com</t>
+    <t>koushik350@gmail.com</t>
   </si>
   <si>
-    <t>Karthick@123</t>
+    <t>Pass123$</t>
   </si>
   <si>
-    <t>Pas23434</t>
-  </si>
-  <si>
-    <t>Passwed</t>
+    <t>koushik1@letcode.in</t>
   </si>
 </sst>
 </file>
@@ -386,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
     <col min="2" max="2" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -410,31 +407,22 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1234567</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{57E3D13E-FDBD-414C-9720-DBB7DD3F80ED}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{F8FD2E8E-56CC-4864-86FC-477E903D2491}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{1F2BFADD-2C4D-490A-91D1-7E62FEDFC04C}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2F9AF66B-2008-43C9-9A91-C8AAAA1324DA}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{F43C18B7-1DAB-4A25-8B64-3FE4AE85AF7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
